--- a/Commenti variabili Feature Eng.xlsx
+++ b/Commenti variabili Feature Eng.xlsx
@@ -2154,7 +2154,14 @@
     <t>Piano dell'ingresso principale all'abitazione</t>
   </si>
   <si>
-    <t>piano_ingresso_ord</t>
+    <t xml:space="preserve">    -1: "seminterrato",
+     0: "piano_terra",
+     1: "1_piano",
+     2: "2_piano",
+     3: "3_piano",
+     4: "4_piano",
+     5: "5_o_piu"
+</t>
   </si>
   <si>
     <t>da -1: seminterrato, 0 terra, poi 1 =1° piano ecc</t>
@@ -2308,7 +2315,7 @@
     <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2329,13 +2336,6 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2800,28 +2800,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2830,122 +2833,119 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2976,6 +2976,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3351,8 +3354,8 @@
   <sheetPr/>
   <dimension ref="A1:I245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="L224" sqref="L224"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3880,7 +3883,6 @@
       <c r="F22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="2"/>
       <c r="H22" s="7" t="s">
         <v>84</v>
       </c>
@@ -3990,7 +3992,6 @@
       <c r="D27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E27"/>
       <c r="F27" s="2" t="s">
         <v>76</v>
       </c>
@@ -8066,7 +8067,6 @@
       <c r="C185" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D185" s="1"/>
       <c r="E185" t="s">
         <v>536</v>
       </c>
@@ -8081,7 +8081,6 @@
       <c r="C186" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D186" s="1"/>
       <c r="E186" t="s">
         <v>539</v>
       </c>
@@ -8096,7 +8095,6 @@
       <c r="C187" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D187" s="1"/>
       <c r="E187" t="s">
         <v>542</v>
       </c>
@@ -8111,7 +8109,6 @@
       <c r="C188" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D188" s="1"/>
       <c r="E188" t="s">
         <v>545</v>
       </c>
@@ -9144,7 +9141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" ht="114" spans="1:8">
       <c r="A229" s="1" t="s">
         <v>681</v>
       </c>
@@ -9157,11 +9154,11 @@
       <c r="D229" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="11" t="s">
         <v>683</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>21</v>
